--- a/client/src/assets/import_samples.xlsx
+++ b/client/src/assets/import_samples.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showObjects="none" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nimbus\nimbus-test\client\src\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Số liệu đkí theo lớp" sheetId="2" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Số liệu đkí theo lớp" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1356,3200 +1364,3452 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <strike/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <strike/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="9" width="21.57"/>
-    <col customWidth="1" min="10" max="10" width="12.71"/>
-    <col customWidth="1" min="11" max="11" width="41.0"/>
-    <col customWidth="1" hidden="1" min="12" max="12" width="21.57"/>
-    <col customWidth="1" min="13" max="19" width="21.57"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="41" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="19" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>43374.88413535879</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>43374.884135358792</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3">
-        <v>43390.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="5">
+        <v>43390</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1">
-        <v>9.146616E8</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="3">
+        <v>914661600</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>43374.89946497685</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3">
-        <v>36291.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="5">
+        <v>36291</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="1">
-        <v>9.09838803E8</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="3">
+        <v>909838803</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>43374.901063680554</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="3">
-        <v>35490.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="5">
+        <v>35490</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="1">
-        <v>1.657935528E9</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="3">
+        <v>1657935528</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>43374.90208846064</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>43374.902088460643</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="3">
-        <v>36672.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="5">
+        <v>36672</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="1">
-        <v>9.37925636E8</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="3">
+        <v>937925636</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>43374.90283733796</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>43374.902837337962</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="3">
-        <v>36453.0</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="5">
+        <v>36453</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="1">
-        <v>9.27201099E8</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="3">
+        <v>927201099</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>43374.9052624537</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="3">
-        <v>35629.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="5">
+        <v>35629</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="1">
-        <v>3.97419639E8</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="3">
+        <v>397419639</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>43374.9122015625</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>43374.912201562503</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="3">
-        <v>36876.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="5">
+        <v>36876</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="1">
-        <v>9.84548551E8</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="3">
+        <v>984548551</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>43374.91319112269</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>43374.913191122687</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="3">
-        <v>36070.0</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="5">
+        <v>36070</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="1">
-        <v>9.12917226E8</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="3">
+        <v>912917226</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>43374.91594853009</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>43374.915948530092</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="3">
-        <v>35732.0</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="5">
+        <v>35732</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="1">
-        <v>9.75513018E8</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="3">
+        <v>975513018</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>43374.97261671296</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>43374.972616712963</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="3">
-        <v>43181.0</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="5">
+        <v>43181</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="1">
-        <v>3.74414682E8</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="3">
+        <v>374414682</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>43374.97458085648</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>43374.974580856477</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="3">
-        <v>36161.0</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="5">
+        <v>36161</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="1">
-        <v>9.7531219E7</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="3">
+        <v>97531219</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>43374.98653050926</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>43374.986530509261</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="3">
-        <v>36501.0</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="5">
+        <v>36501</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="1">
-        <v>1.626823542E9</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="3">
+        <v>1626823542</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="5">
-        <v>43374.99749306713</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>43374.997493067131</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="3">
-        <v>36343.0</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="5">
+        <v>36343</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="1">
-        <v>1.676722836E9</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="3">
+        <v>1676722836</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>43375.39017695602</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>43375.390176956018</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="3">
-        <v>35353.0</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="5">
+        <v>35353</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="1">
-        <v>1.65978745E9</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="3">
+        <v>1659787450</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>43375.39639430556</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>43375.396394305557</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="3">
-        <v>35285.0</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="5">
+        <v>35285</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="1">
-        <v>3.84849742E8</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>384849742</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>43375.39722645833</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>43375.397226458328</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="3">
-        <v>36476.0</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="5">
+        <v>36476</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="1">
-        <v>3.96079118E8</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="3">
+        <v>396079118</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>43375.51548447917</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>43375.515484479169</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="3">
-        <v>36384.0</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="5">
+        <v>36384</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>43375.51585202546</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>43375.515852025463</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="3">
-        <v>36522.0</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="5">
+        <v>36522</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="1">
-        <v>9.83335069E8</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F19" s="3">
+        <v>983335069</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>43375.51673516203</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>43375.516735162033</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="3">
-        <v>36415.0</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="5">
+        <v>36415</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="1">
-        <v>9.84909524E8</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="F20" s="3">
+        <v>984909524</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>43375.747099768516</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="3">
-        <v>43113.0</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="5">
+        <v>43113</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F21" s="1">
-        <v>9.46049612E8</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="3">
+        <v>946049612</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="5">
-        <v>43375.75461929398</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>43375.754619293977</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="3">
-        <v>35562.0</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="5">
+        <v>35562</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="1">
-        <v>9.04508654E8</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" s="3">
+        <v>904508654</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2">
-        <v>43375.81431174769</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>43375.814311747687</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="3">
-        <v>36867.0</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="5">
+        <v>36867</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="1">
-        <v>1.67295588E9</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="F23" s="3">
+        <v>1672955880</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2">
-        <v>43375.96062481482</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>43375.960624814819</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="3">
-        <v>36240.0</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="5">
+        <v>36240</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="1">
-        <v>9.49326158E8</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="F24" s="3">
+        <v>949326158</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2">
-        <v>43375.97219097222</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>43375.972190972221</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="3">
-        <v>36828.0</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="5">
+        <v>36828</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="1">
-        <v>8.69269506E8</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="F25" s="3">
+        <v>869269506</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2">
-        <v>43375.97405125</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>43375.974051249999</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="3">
-        <v>36824.0</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="5">
+        <v>36824</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="1">
-        <v>3.69796743E8</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F26" s="3">
+        <v>369796743</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2">
-        <v>43375.97795847223</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>43375.977958472227</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="3">
-        <v>36747.0</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="5">
+        <v>36747</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="1">
-        <v>9.61687062E8</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="F27" s="3">
+        <v>961687062</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2">
-        <v>43376.37217591435</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>43376.372175914352</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="3">
-        <v>35318.0</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="5">
+        <v>35318</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="1">
-        <v>3.54272093E8</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="F28" s="3">
+        <v>354272093</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="5">
-        <v>43376.43181807871</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>43376.431818078709</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="3">
-        <v>36487.0</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="5">
+        <v>36487</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="1">
-        <v>1.627786619E9</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="F29" s="3">
+        <v>1627786619</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2">
-        <v>43376.61609780093</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>43376.616097800928</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C30" s="3">
-        <v>36455.0</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="5">
+        <v>36455</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F30" s="1">
-        <v>9.76704841E8</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="F30" s="3">
+        <v>976704841</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2">
-        <v>43376.61743126158</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>43376.617431261577</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="3">
-        <v>36863.0</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C31" s="5">
+        <v>36863</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F31" s="1">
-        <v>9.66222986E8</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="F31" s="3">
+        <v>966222986</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2">
-        <v>43376.84374140046</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>43376.843741400458</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C32" s="3">
-        <v>35725.0</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="5">
+        <v>35725</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="1">
-        <v>3.89282423E8</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="F32" s="3">
+        <v>389282423</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2">
-        <v>43376.86425829861</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>43376.864258298607</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="3">
-        <v>36215.0</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="5">
+        <v>36215</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F33" s="1">
-        <v>9.81219862E8</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="F33" s="3">
+        <v>981219862</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2">
-        <v>43376.88682708333</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>43376.886827083334</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C34" s="3">
-        <v>36701.0</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C34" s="5">
+        <v>36701</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F34" s="1">
-        <v>9.78968501E8</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="F34" s="3">
+        <v>978968501</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2">
+    <row r="35" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>43376.888663171296</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C35" s="3">
-        <v>36651.0</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="5">
+        <v>36651</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F35" s="1">
-        <v>9.86601062E8</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="F35" s="3">
+        <v>986601062</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2">
+    <row r="36" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>43376.899717962966</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C36" s="3">
-        <v>35773.0</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C36" s="5">
+        <v>35773</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F36" s="1">
-        <v>9.89413306E8</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="F36" s="3">
+        <v>989413306</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2">
+    <row r="37" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>43376.903714618056</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C37" s="3">
-        <v>36865.0</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="5">
+        <v>36865</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F37" s="1">
-        <v>9.63238113E8</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="F37" s="3">
+        <v>963238113</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2">
-        <v>43376.90616142361</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>43376.906161423613</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C38" s="3">
-        <v>36566.0</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C38" s="5">
+        <v>36566</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F38" s="1">
-        <v>7.93234552E8</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="F38" s="3">
+        <v>793234552</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="6">
+    <row r="39" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>43376.908288969906</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C39" s="8">
-        <v>36737.0</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="5">
+        <v>36737</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F39" s="7">
-        <v>9.45312626E8</v>
-      </c>
-      <c r="G39" s="7" t="s">
+      <c r="F39" s="3">
+        <v>945312626</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="L39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="M39" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="6">
+    <row r="40" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>43376.910725532405</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="8">
-        <v>36772.0</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="5">
+        <v>36772</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F40" s="7">
-        <v>9.79197937E8</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="F40" s="3">
+        <v>979197937</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="M40" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="6">
-        <v>43376.91241788195</v>
-      </c>
-      <c r="B41" s="7" t="s">
+    <row r="41" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>43376.912417881947</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C41" s="8">
-        <v>36565.0</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="5">
+        <v>36565</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F41" s="7">
-        <v>3.95750186E8</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="F41" s="3">
+        <v>395750186</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="M41" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2">
-        <v>43376.99124268518</v>
-      </c>
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>43376.991242685181</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C42" s="3">
-        <v>36359.0</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="5">
+        <v>36359</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F42" s="1">
-        <v>9.43429916E8</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="F42" s="3">
+        <v>943429916</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2">
+    <row r="43" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>43377.04300982639</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C43" s="3">
-        <v>35405.0</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="C43" s="5">
+        <v>35405</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="1">
-        <v>9.68275642E8</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="F43" s="3">
+        <v>968275642</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2">
-        <v>43377.30605989583</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>43377.306059895833</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C44" s="3">
-        <v>35436.0</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C44" s="5">
+        <v>35436</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F44" s="1">
-        <v>9.72583197E8</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="F44" s="3">
+        <v>972583197</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2">
+    <row r="45" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>43377.351623587965</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C45" s="3">
-        <v>43238.0</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C45" s="5">
+        <v>43238</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F45" s="1">
-        <v>9.79566681E8</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="F45" s="3">
+        <v>979566681</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2">
-        <v>43377.46251491898</v>
-      </c>
-      <c r="B46" s="1" t="s">
+    <row r="46" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>43377.462514918981</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C46" s="3">
-        <v>35470.0</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="C46" s="5">
+        <v>35470</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="1">
-        <v>9.04289228E8</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="F46" s="3">
+        <v>904289228</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2">
-        <v>43377.46661263889</v>
-      </c>
-      <c r="B47" s="1" t="s">
+    <row r="47" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>43377.466612638891</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C47" s="3">
-        <v>35717.0</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C47" s="5">
+        <v>35717</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F47" s="1">
-        <v>9.43589685E8</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="F47" s="3">
+        <v>943589685</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K47" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M47" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2">
+    <row r="48" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>43377.62228181713</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C48" s="3">
-        <v>36510.0</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="C48" s="5">
+        <v>36510</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F48" s="1">
-        <v>9.65822604E8</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="F48" s="3">
+        <v>965822604</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="K48" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="M48" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="5">
-        <v>43377.65439390046</v>
-      </c>
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>43377.654393900462</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C49" s="3">
-        <v>35435.0</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="C49" s="5">
+        <v>35435</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F49" s="1">
-        <v>9.63629788E8</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3">
+        <v>963629788</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K49" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="6">
-        <v>43377.66509394676</v>
-      </c>
-      <c r="B50" s="7" t="s">
+    <row r="50" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>43377.665093946758</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C50" s="8">
-        <v>43401.0</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="C50" s="5">
+        <v>43401</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="7">
-        <v>1.63718387E9</v>
-      </c>
-      <c r="G50" s="7" t="s">
+      <c r="F50" s="3">
+        <v>1637183870</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J50" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="L50" s="7" t="s">
+      <c r="L50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M50" s="7" t="s">
+      <c r="M50" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2">
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+    </row>
+    <row r="51" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>43377.68064100694</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C51" s="3">
-        <v>35541.0</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C51" s="5">
+        <v>35541</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F51" s="1">
-        <v>9.03210497E8</v>
-      </c>
-      <c r="G51" s="1" t="s">
+      <c r="F51" s="3">
+        <v>903210497</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="K51" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L51" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M51" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2">
+    <row r="52" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
         <v>43377.6866921412</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C52" s="3">
-        <v>36721.0</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="C52" s="5">
+        <v>36721</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F52" s="1">
-        <v>9.48256541E8</v>
-      </c>
-      <c r="G52" s="1" t="s">
+      <c r="F52" s="3">
+        <v>948256541</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="K52" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2">
+    <row r="53" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
         <v>43377.68673361111</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C53" s="3">
-        <v>35541.0</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="C53" s="5">
+        <v>35541</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F53" s="1">
-        <v>9.03210497E8</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="F53" s="3">
+        <v>903210497</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="K53" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="L53" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="M53" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2">
+    <row r="54" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
         <v>43377.745640601854</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C54" s="3">
-        <v>36510.0</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="C54" s="5">
+        <v>36510</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F54" s="1">
-        <v>9.65822604E8</v>
-      </c>
-      <c r="G54" s="1" t="s">
+      <c r="F54" s="3">
+        <v>965822604</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K54" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2">
-        <v>43377.76928849537</v>
-      </c>
-      <c r="B55" s="1" t="s">
+    <row r="55" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>43377.769288495372</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C55" s="3">
-        <v>36334.0</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="C55" s="5">
+        <v>36334</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F55" s="1">
-        <v>9.87714609E8</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="F55" s="3">
+        <v>987714609</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K55" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="L55" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="6">
-        <v>43377.7736190162</v>
-      </c>
-      <c r="B56" s="7" t="s">
+    <row r="56" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>43377.773619016203</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C56" s="8">
-        <v>43231.0</v>
-      </c>
-      <c r="D56" s="7" t="s">
+      <c r="C56" s="5">
+        <v>43231</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F56" s="7">
-        <v>3.92283784E8</v>
-      </c>
-      <c r="G56" s="7" t="s">
+      <c r="F56" s="3">
+        <v>392283784</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H56" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I56" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="K56" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="L56" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M56" s="7" t="s">
+      <c r="M56" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="5">
+    <row r="57" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>43377.806994398146</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C57" s="3">
-        <v>35148.0</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="C57" s="5">
+        <v>35148</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F57" s="1">
-        <v>3.68673328E8</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="F57" s="3">
+        <v>368673328</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="K57" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="L57" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="6">
-        <v>43377.9029</v>
-      </c>
-      <c r="B58" s="7" t="s">
+    <row r="58" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>43377.902900000001</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C58" s="8">
-        <v>43401.0</v>
-      </c>
-      <c r="D58" s="7" t="s">
+      <c r="C58" s="5">
+        <v>43401</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="7">
-        <v>1.63718387E9</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="F58" s="3">
+        <v>1637183870</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H58" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="J58" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="K58" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="L58" s="7" t="s">
+      <c r="L58" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M58" s="7" t="s">
+      <c r="M58" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2">
-        <v>43377.9092818287</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>43377.909281828703</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C59" s="3">
-        <v>36850.0</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="C59" s="5">
+        <v>36850</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F59" s="1">
-        <v>3.76817696E8</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="F59" s="3">
+        <v>376817696</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I59" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="K59" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="L59" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="M59" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2">
-        <v>43377.91292216435</v>
-      </c>
-      <c r="B60" s="1" t="s">
+    <row r="60" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>43377.912922164352</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C60" s="3">
-        <v>43401.0</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="C60" s="5">
+        <v>43401</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F60" s="1">
-        <v>1.63718387E9</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="F60" s="3">
+        <v>1637183870</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="K60" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="L60" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M60" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2">
-        <v>43377.91338225694</v>
-      </c>
-      <c r="B61" s="1" t="s">
+    <row r="61" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>43377.913382256942</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C61" s="3">
-        <v>36567.0</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="C61" s="5">
+        <v>36567</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F61" s="1">
-        <v>9.66459901E8</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="F61" s="3">
+        <v>966459901</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K61" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2">
-        <v>43377.94738186343</v>
-      </c>
-      <c r="B62" s="1" t="s">
+    <row r="62" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>43377.947381863429</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C62" s="3">
-        <v>36145.0</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="C62" s="5">
+        <v>36145</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F62" s="1">
-        <v>3.98287575E8</v>
-      </c>
-      <c r="G62" s="1" t="s">
+      <c r="F62" s="3">
+        <v>398287575</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="K62" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="L62" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M62" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2">
-        <v>43378.02429297454</v>
-      </c>
-      <c r="B63" s="1" t="s">
+    <row r="63" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>43378.024292974536</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C63" s="3">
-        <v>36466.0</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="C63" s="5">
+        <v>36466</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="F63" s="1">
-        <v>1.63958085E9</v>
-      </c>
-      <c r="G63" s="1" t="s">
+      <c r="F63" s="3">
+        <v>1639580850</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="K63" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="L63" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M63" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2">
-        <v>43378.02765422454</v>
-      </c>
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>43378.027654224541</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C64" s="3">
-        <v>43295.0</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="C64" s="5">
+        <v>43295</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F64" s="1">
-        <v>3.75542487E8</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="F64" s="3">
+        <v>375542487</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K64" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L64" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="5">
+    <row r="65" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
         <v>43378.515088622684</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C65" s="3">
-        <v>35564.0</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="C65" s="5">
+        <v>35564</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F65" s="1">
-        <v>1.646936566E9</v>
-      </c>
-      <c r="G65" s="1" t="s">
+      <c r="F65" s="3">
+        <v>1646936566</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K65" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="L65" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M65" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2">
-        <v>43378.70136936342</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>43378.701369363422</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C66" s="3">
-        <v>36707.0</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="C66" s="5">
+        <v>36707</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F66" s="1">
-        <v>9.4467036E8</v>
-      </c>
-      <c r="G66" s="1" t="s">
+      <c r="F66" s="3">
+        <v>944670360</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K66" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="L66" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="M66" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2">
-        <v>43378.71579127315</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    <row r="67" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>43378.715791273149</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C67" s="3">
-        <v>36528.0</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="C67" s="5">
+        <v>36528</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F67" s="1">
-        <v>9.36689069E8</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="F67" s="3">
+        <v>936689069</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="K67" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="L67" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="M67" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2">
+    <row r="68" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
         <v>43378.76679908565</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C68" s="3">
-        <v>36138.0</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="C68" s="5">
+        <v>36138</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="F68" s="1">
-        <v>9.65739769E8</v>
-      </c>
-      <c r="G68" s="1" t="s">
+      <c r="F68" s="3">
+        <v>965739769</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I68" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="K68" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="L68" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="M68" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2">
+    <row r="69" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
         <v>43378.782870763884</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C69" s="3">
-        <v>35587.0</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="C69" s="5">
+        <v>35587</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="F69" s="1">
-        <v>1.277060697E9</v>
-      </c>
-      <c r="G69" s="1" t="s">
+      <c r="F69" s="3">
+        <v>1277060697</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="K69" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="L69" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="M69" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="5">
-        <v>43378.84867212963</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    <row r="70" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>43378.848672129629</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C70" s="3">
-        <v>36318.0</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="C70" s="5">
+        <v>36318</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F70" s="1">
-        <v>9.11547076E8</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="F70" s="3">
+        <v>911547076</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="K70" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="L70" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="M70" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2">
-        <v>43378.97596561343</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    <row r="71" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>43378.975965613427</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C71" s="3">
-        <v>36696.0</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="C71" s="5">
+        <v>36696</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F71" s="1">
-        <v>8.39711757E8</v>
-      </c>
-      <c r="G71" s="1" t="s">
+      <c r="F71" s="3">
+        <v>839711757</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K71" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="L71" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="M71" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2">
-        <v>43379.03967791666</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    <row r="72" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>43379.039677916662</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C72" s="3">
-        <v>43235.0</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="C72" s="5">
+        <v>43235</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="F72" s="1">
-        <v>9.36460172E8</v>
-      </c>
-      <c r="G72" s="1" t="s">
+      <c r="F72" s="3">
+        <v>936460172</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I72" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="K72" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="L72" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="M72" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2">
-        <v>43379.4513218287</v>
-      </c>
-      <c r="B73" s="1" t="s">
+    <row r="73" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>43379.451321828703</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C73" s="3">
-        <v>36409.0</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="C73" s="5">
+        <v>36409</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F73" s="1">
-        <v>3.73220264E8</v>
-      </c>
-      <c r="G73" s="1" t="s">
+      <c r="F73" s="3">
+        <v>373220264</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I73" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K73" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="L73" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="M73" s="3" t="s">
         <v>372</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H2"/>
-    <hyperlink r:id="rId2" ref="H3"/>
-    <hyperlink r:id="rId3" ref="H4"/>
-    <hyperlink r:id="rId4" ref="H5"/>
-    <hyperlink r:id="rId5" ref="H6"/>
-    <hyperlink r:id="rId6" ref="H7"/>
-    <hyperlink r:id="rId7" ref="H8"/>
-    <hyperlink r:id="rId8" ref="H9"/>
-    <hyperlink r:id="rId9" ref="H10"/>
-    <hyperlink r:id="rId10" ref="H11"/>
-    <hyperlink r:id="rId11" ref="H12"/>
-    <hyperlink r:id="rId12" ref="H13"/>
-    <hyperlink r:id="rId13" ref="H14"/>
-    <hyperlink r:id="rId14" ref="H15"/>
-    <hyperlink r:id="rId15" ref="H16"/>
-    <hyperlink r:id="rId16" ref="H17"/>
-    <hyperlink r:id="rId17" ref="H18"/>
-    <hyperlink r:id="rId18" ref="H19"/>
-    <hyperlink r:id="rId19" ref="H20"/>
-    <hyperlink r:id="rId20" ref="H21"/>
-    <hyperlink r:id="rId21" ref="H22"/>
-    <hyperlink r:id="rId22" ref="H23"/>
-    <hyperlink r:id="rId23" ref="H24"/>
-    <hyperlink r:id="rId24" ref="H25"/>
-    <hyperlink r:id="rId25" ref="H26"/>
-    <hyperlink r:id="rId26" ref="H27"/>
-    <hyperlink r:id="rId27" ref="H28"/>
-    <hyperlink r:id="rId28" ref="H29"/>
-    <hyperlink r:id="rId29" ref="H30"/>
-    <hyperlink r:id="rId30" ref="H31"/>
-    <hyperlink r:id="rId31" ref="H33"/>
-    <hyperlink r:id="rId32" ref="H34"/>
-    <hyperlink r:id="rId33" ref="H35"/>
-    <hyperlink r:id="rId34" ref="H36"/>
-    <hyperlink r:id="rId35" ref="H37"/>
-    <hyperlink r:id="rId36" ref="H38"/>
-    <hyperlink r:id="rId37" ref="H39"/>
-    <hyperlink r:id="rId38" ref="H40"/>
-    <hyperlink r:id="rId39" ref="H41"/>
-    <hyperlink r:id="rId40" ref="H42"/>
-    <hyperlink r:id="rId41" ref="H43"/>
-    <hyperlink r:id="rId42" ref="H45"/>
-    <hyperlink r:id="rId43" ref="H46"/>
-    <hyperlink r:id="rId44" ref="H47"/>
-    <hyperlink r:id="rId45" ref="H49"/>
-    <hyperlink r:id="rId46" ref="H50"/>
-    <hyperlink r:id="rId47" ref="H51"/>
-    <hyperlink r:id="rId48" ref="H52"/>
-    <hyperlink r:id="rId49" ref="H53"/>
-    <hyperlink r:id="rId50" ref="H55"/>
-    <hyperlink r:id="rId51" ref="H56"/>
-    <hyperlink r:id="rId52" ref="H57"/>
-    <hyperlink r:id="rId53" ref="H58"/>
-    <hyperlink r:id="rId54" ref="H59"/>
-    <hyperlink r:id="rId55" ref="H60"/>
-    <hyperlink r:id="rId56" ref="H61"/>
-    <hyperlink r:id="rId57" ref="H62"/>
-    <hyperlink r:id="rId58" location="!/phuong.linh.35977897?ref=bookmarks" ref="H63"/>
-    <hyperlink r:id="rId59" ref="H64"/>
-    <hyperlink r:id="rId60" ref="H66"/>
-    <hyperlink r:id="rId61" ref="H67"/>
-    <hyperlink r:id="rId62" ref="H68"/>
-    <hyperlink r:id="rId63" ref="H70"/>
-    <hyperlink r:id="rId64" ref="H71"/>
-    <hyperlink r:id="rId65" ref="H72"/>
-    <hyperlink r:id="rId66" ref="H73"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
+    <hyperlink ref="H14" r:id="rId13"/>
+    <hyperlink ref="H15" r:id="rId14"/>
+    <hyperlink ref="H16" r:id="rId15"/>
+    <hyperlink ref="H17" r:id="rId16"/>
+    <hyperlink ref="H18" r:id="rId17"/>
+    <hyperlink ref="H19" r:id="rId18"/>
+    <hyperlink ref="H20" r:id="rId19"/>
+    <hyperlink ref="H21" r:id="rId20"/>
+    <hyperlink ref="H22" r:id="rId21"/>
+    <hyperlink ref="H23" r:id="rId22"/>
+    <hyperlink ref="H24" r:id="rId23"/>
+    <hyperlink ref="H25" r:id="rId24"/>
+    <hyperlink ref="H26" r:id="rId25"/>
+    <hyperlink ref="H27" r:id="rId26"/>
+    <hyperlink ref="H28" r:id="rId27"/>
+    <hyperlink ref="H29" r:id="rId28"/>
+    <hyperlink ref="H30" r:id="rId29"/>
+    <hyperlink ref="H31" r:id="rId30"/>
+    <hyperlink ref="H33" r:id="rId31"/>
+    <hyperlink ref="H34" r:id="rId32"/>
+    <hyperlink ref="H35" r:id="rId33"/>
+    <hyperlink ref="H36" r:id="rId34"/>
+    <hyperlink ref="H37" r:id="rId35"/>
+    <hyperlink ref="H38" r:id="rId36"/>
+    <hyperlink ref="H39" r:id="rId37"/>
+    <hyperlink ref="H40" r:id="rId38"/>
+    <hyperlink ref="H41" r:id="rId39"/>
+    <hyperlink ref="H42" r:id="rId40"/>
+    <hyperlink ref="H43" r:id="rId41"/>
+    <hyperlink ref="H45" r:id="rId42"/>
+    <hyperlink ref="H46" r:id="rId43"/>
+    <hyperlink ref="H47" r:id="rId44"/>
+    <hyperlink ref="H49" r:id="rId45"/>
+    <hyperlink ref="H50" r:id="rId46"/>
+    <hyperlink ref="H51" r:id="rId47"/>
+    <hyperlink ref="H52" r:id="rId48"/>
+    <hyperlink ref="H53" r:id="rId49"/>
+    <hyperlink ref="H55" r:id="rId50"/>
+    <hyperlink ref="H56" r:id="rId51"/>
+    <hyperlink ref="H57" r:id="rId52"/>
+    <hyperlink ref="H58" r:id="rId53"/>
+    <hyperlink ref="H59" r:id="rId54"/>
+    <hyperlink ref="H60" r:id="rId55"/>
+    <hyperlink ref="H61" r:id="rId56"/>
+    <hyperlink ref="H62" r:id="rId57"/>
+    <hyperlink ref="H63" r:id="rId58" location="!/phuong.linh.35977897?ref=bookmarks"/>
+    <hyperlink ref="H64" r:id="rId59"/>
+    <hyperlink ref="H66" r:id="rId60"/>
+    <hyperlink ref="H67" r:id="rId61"/>
+    <hyperlink ref="H68" r:id="rId62"/>
+    <hyperlink ref="H70" r:id="rId63"/>
+    <hyperlink ref="H71" r:id="rId64"/>
+    <hyperlink ref="H72" r:id="rId65"/>
+    <hyperlink ref="H73" r:id="rId66"/>
   </hyperlinks>
-  <drawing r:id="rId67"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4565,47 +4825,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -4613,50 +4873,50 @@
         <v>24</v>
       </c>
       <c r="C8" s="1">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="1">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="1">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/client/src/assets/import_samples.xlsx
+++ b/client/src/assets/import_samples.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet name="form" sheetId="1" r:id="rId1"/>
     <sheet name="Số liệu đkí theo lớp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -1707,9 +1707,9 @@
   </sheetPr>
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
